--- a/models/hpp/data/datosPais.xlsx
+++ b/models/hpp/data/datosPais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\piaTool\hpp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PiaToolv2\models\hpp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$I$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$F$89</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="41">
   <si>
     <t>pais</t>
   </si>
@@ -88,16 +88,72 @@
   </si>
   <si>
     <t>Mexico</t>
+  </si>
+  <si>
+    <t>OMS: https://platform.who.int/data/maternal-newborn-child-adolescent-ageing/indicator-explorer-new/mca/</t>
+  </si>
+  <si>
+    <t>Naciones Unidas: https://population.un.org/dataportal/data/indicators/18/locations/214/start/2020/end/2025/table/pivotbylocation?df=7540dd85-b7da-4d28-8f2a-aaa7a0b911cb</t>
+  </si>
+  <si>
+    <t>UNICEF: https://data.unicef.org/resources/data_explorer/unicef_f/?ag=UNICEF&amp;df=GLOBAL_DATAFLOW&amp;ver=1.0&amp;dq=.MNCH_INSTDEL+MNCH_SAB..&amp;startPeriod=2016&amp;endPeriod=2022</t>
+  </si>
+  <si>
+    <t>Ministerio de Salud: https://www.gub.uy/ministerio-salud-publica/sites/ministerio-salud-publica/files/documentos/publicaciones/Mortalidad_Materna_2019-2024_Final_0.pdf</t>
+  </si>
+  <si>
+    <t>Naciones Unidas: https://population.un.org/wpp/downloads?folder=Standard%20Projections&amp;group=Mortality</t>
+  </si>
+  <si>
+    <t>Evaluación económica del uso de oxitocina en el sistema de inyección Uniject ™ versus el uso estándar en_x000D_
+ampollas para la prevención de la hemorragia posparto en el manejo activo de la tercera etapa del parto en_x000D_
+América Latina y el Caribe. Informe técnico N° 12 del IECS. Instituto de Efectividad Clínica y Sanitaria. Buenos Aires._x000D_
+Argentina. Diciembre del 2013 (www.iecs.org.ar).: https://www.paho.org/sites/default/files/2024-03/2014-oxitocin-uniject-report-spa.pdf</t>
+  </si>
+  <si>
+    <t>Fecha del parámetro</t>
+  </si>
+  <si>
+    <t>Fecha de actualización</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>OPS: Health in the Americas. Country Report: Jamaica. UN Population and Statistics Divisions. 1990; PAHO Health Information Platform (PHIP). 2013. 2014. and 2015. https://www.paho.org/salud-en-las-americas-2017/?page_id=135</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>Ministerio de Salud: https://repositorio.msp.gob.do/bitstream/handle/123456789/2381/MISPAS_SS_EAI_202509_9789945659092.pdf</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Pichon-Riviere A. et al (2015) y actualizado por inflación</t>
+  </si>
+  <si>
+    <t>Páginas oficiales de precios de medicamentos: ARG. BRA. COL. ECU y PER. Actualizado por inflación: CHL.12 Estimación indirecta*: CRC. MEX.</t>
+  </si>
+  <si>
+    <t>Se aplica transferibilidad de costos desde República Dominicana (Calculado por estimación indirecta)</t>
+  </si>
+  <si>
+    <t>Información compartida por Madeline Melissa Martínez García. el día 1/10/2025 por mail: m.martinez@sisalril.gob.do</t>
+  </si>
+  <si>
+    <t>Compra Directa 223/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,20 +163,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,18 +192,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +509,7 @@
     <col min="2" max="2" width="38.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,19 +519,37 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>752059</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="3">
+        <v>508067</v>
+      </c>
+      <c r="D2">
+        <v>2025</v>
+      </c>
+      <c r="E2">
+        <v>2025</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -479,21 +557,39 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>29.2</v>
+      </c>
+      <c r="D3">
+        <v>2024</v>
+      </c>
+      <c r="E3">
+        <v>2025</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0.995</v>
+      </c>
+      <c r="D4">
+        <v>2023</v>
+      </c>
+      <c r="E4">
+        <v>2025</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -503,30 +599,57 @@
       <c r="C5">
         <v>0.71099999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>2013</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+      <c r="E6">
+        <v>2025</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>2024</v>
+      </c>
+      <c r="E7">
+        <v>2025</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -534,10 +657,19 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>84.26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="D8">
+        <v>2023</v>
+      </c>
+      <c r="E8">
+        <v>2025</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -547,8 +679,17 @@
       <c r="C9">
         <v>62.04</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -558,20 +699,37 @@
       <c r="C10">
         <v>790.49</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>2.97</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -582,7 +740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -590,10 +748,19 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>3023000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2528724</v>
+      </c>
+      <c r="D13">
+        <v>2025</v>
+      </c>
+      <c r="E13">
+        <v>2025</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -601,10 +768,19 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>27.9</v>
+      </c>
+      <c r="D14">
+        <v>2024</v>
+      </c>
+      <c r="E14">
+        <v>2025</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -612,10 +788,19 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D15">
+        <v>2023</v>
+      </c>
+      <c r="E15">
+        <v>2025</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -625,8 +810,17 @@
       <c r="C16">
         <v>0.74199999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>2013</v>
+      </c>
+      <c r="E16">
+        <v>2023</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -634,10 +828,19 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66.91</v>
+      </c>
+      <c r="D17">
+        <v>2023</v>
+      </c>
+      <c r="E17">
+        <v>2025</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -647,8 +850,17 @@
       <c r="C18">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>2025</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -656,10 +868,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="D19">
+        <v>2023</v>
+      </c>
+      <c r="E19">
+        <v>2025</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -669,8 +890,17 @@
       <c r="C20">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -680,8 +910,17 @@
       <c r="C21">
         <v>289.02</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -691,8 +930,17 @@
       <c r="C22">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -703,7 +951,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -711,10 +959,19 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>914000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>692792</v>
+      </c>
+      <c r="D24">
+        <v>2025</v>
+      </c>
+      <c r="E24">
+        <v>2025</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -722,10 +979,19 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26.6</v>
+      </c>
+      <c r="D25">
+        <v>2024</v>
+      </c>
+      <c r="E25">
+        <v>2025</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -733,10 +999,19 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="D26">
+        <v>2023</v>
+      </c>
+      <c r="E26">
+        <v>2025</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -746,8 +1021,17 @@
       <c r="C27">
         <v>0.69499999999999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>2013</v>
+      </c>
+      <c r="E27">
+        <v>2023</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -755,10 +1039,19 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59.38</v>
+      </c>
+      <c r="D28">
+        <v>2023</v>
+      </c>
+      <c r="E28">
+        <v>2025</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -768,8 +1061,17 @@
       <c r="C29">
         <v>0.17699999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>2024</v>
+      </c>
+      <c r="E29">
+        <v>2025</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -777,10 +1079,19 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26.6</v>
+      </c>
+      <c r="D30">
+        <v>2023</v>
+      </c>
+      <c r="E30">
+        <v>2025</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -790,8 +1101,17 @@
       <c r="C31">
         <v>43.09</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -801,8 +1121,17 @@
       <c r="C32">
         <v>495.46</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -810,10 +1139,19 @@
         <v>13</v>
       </c>
       <c r="C33">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -824,7 +1162,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -832,10 +1170,19 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>299000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>267665</v>
+      </c>
+      <c r="D35">
+        <v>2025</v>
+      </c>
+      <c r="E35">
+        <v>2025</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -843,10 +1190,19 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27.4</v>
+      </c>
+      <c r="D36">
+        <v>2024</v>
+      </c>
+      <c r="E36">
+        <v>2025</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -856,8 +1212,17 @@
       <c r="C37">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>2023</v>
+      </c>
+      <c r="E37">
+        <v>2023</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -867,8 +1232,17 @@
       <c r="C38">
         <v>0.66600000000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>2013</v>
+      </c>
+      <c r="E38">
+        <v>2023</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -876,10 +1250,19 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55.37</v>
+      </c>
+      <c r="D39">
+        <v>2023</v>
+      </c>
+      <c r="E39">
+        <v>2025</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -889,8 +1272,17 @@
       <c r="C40">
         <v>0.29399999999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>2024</v>
+      </c>
+      <c r="E40">
+        <v>2025</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -898,10 +1290,19 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="D41">
+        <v>2023</v>
+      </c>
+      <c r="E41">
+        <v>2025</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -911,8 +1312,17 @@
       <c r="C42">
         <v>47.78</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -922,8 +1332,17 @@
       <c r="C43">
         <v>505.59</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -933,8 +1352,17 @@
       <c r="C44">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -945,7 +1373,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -953,10 +1381,19 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>73000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50630</v>
+      </c>
+      <c r="D46">
+        <v>2025</v>
+      </c>
+      <c r="E46">
+        <v>2025</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -964,10 +1401,19 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28.3</v>
+      </c>
+      <c r="D47">
+        <v>2024</v>
+      </c>
+      <c r="E47">
+        <v>2025</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -977,8 +1423,17 @@
       <c r="C48">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>2023</v>
+      </c>
+      <c r="E48">
+        <v>2023</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -988,8 +1443,17 @@
       <c r="C49">
         <v>0.71599999999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>2013</v>
+      </c>
+      <c r="E49">
+        <v>2023</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -997,10 +1461,19 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24.12</v>
+      </c>
+      <c r="D50">
+        <v>2023</v>
+      </c>
+      <c r="E50">
+        <v>2025</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -1010,8 +1483,17 @@
       <c r="C51">
         <v>0.157</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>2024</v>
+      </c>
+      <c r="E51">
+        <v>2025</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1019,10 +1501,19 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>84.7</v>
+      </c>
+      <c r="D52">
+        <v>2023</v>
+      </c>
+      <c r="E52">
+        <v>2025</v>
+      </c>
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1032,8 +1523,17 @@
       <c r="C53">
         <v>76.260000000000005</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -1043,8 +1543,17 @@
       <c r="C54">
         <v>931.36</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -1054,8 +1563,17 @@
       <c r="C55">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -1066,7 +1584,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -1074,10 +1592,19 @@
         <v>4</v>
       </c>
       <c r="C57">
-        <v>241500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>170383</v>
+      </c>
+      <c r="D57">
+        <v>2025</v>
+      </c>
+      <c r="E57">
+        <v>2025</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -1085,10 +1612,19 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31.4</v>
+      </c>
+      <c r="D58">
+        <v>2024</v>
+      </c>
+      <c r="E58">
+        <v>2025</v>
+      </c>
+      <c r="F58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -1098,8 +1634,17 @@
       <c r="C59">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>2023</v>
+      </c>
+      <c r="E59">
+        <v>2023</v>
+      </c>
+      <c r="F59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -1109,8 +1654,17 @@
       <c r="C60">
         <v>0.71599999999999997</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>2013</v>
+      </c>
+      <c r="E60">
+        <v>2023</v>
+      </c>
+      <c r="F60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -1118,10 +1672,19 @@
         <v>8</v>
       </c>
       <c r="C61">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D61">
+        <v>2023</v>
+      </c>
+      <c r="E61">
+        <v>2025</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -1131,8 +1694,17 @@
       <c r="C62">
         <v>6.5299999999999997E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>2024</v>
+      </c>
+      <c r="E62">
+        <v>2025</v>
+      </c>
+      <c r="F62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -1140,10 +1712,19 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>84.3</v>
+      </c>
+      <c r="D63">
+        <v>2023</v>
+      </c>
+      <c r="E63">
+        <v>2025</v>
+      </c>
+      <c r="F63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1734,17 @@
       <c r="C64">
         <v>94.37</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -1164,8 +1754,17 @@
       <c r="C65">
         <v>1244.24</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -1173,10 +1772,19 @@
         <v>13</v>
       </c>
       <c r="C66">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.18</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1795,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -1195,10 +1803,19 @@
         <v>4</v>
       </c>
       <c r="C68">
-        <v>154000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>535695</v>
+      </c>
+      <c r="D68">
+        <v>2025</v>
+      </c>
+      <c r="E68">
+        <v>2025</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -1206,10 +1823,19 @@
         <v>5</v>
       </c>
       <c r="C69">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28.8</v>
+      </c>
+      <c r="D69">
+        <v>2024</v>
+      </c>
+      <c r="E69">
+        <v>2025</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -1217,10 +1843,19 @@
         <v>6</v>
       </c>
       <c r="C70">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="D70">
+        <v>2023</v>
+      </c>
+      <c r="E70">
+        <v>2023</v>
+      </c>
+      <c r="F70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -1230,8 +1865,17 @@
       <c r="C71">
         <v>0.65600000000000003</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>2013</v>
+      </c>
+      <c r="E71">
+        <v>2023</v>
+      </c>
+      <c r="F71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -1239,10 +1883,19 @@
         <v>8</v>
       </c>
       <c r="C72">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51.45</v>
+      </c>
+      <c r="D72">
+        <v>2023</v>
+      </c>
+      <c r="E72">
+        <v>2025</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -1252,8 +1905,17 @@
       <c r="C73">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>2024</v>
+      </c>
+      <c r="E73">
+        <v>2025</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -1261,21 +1923,39 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>81.7</v>
+      </c>
+      <c r="D74">
+        <v>2023</v>
+      </c>
+      <c r="E74">
+        <v>2025</v>
+      </c>
+      <c r="F74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>20</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75">
         <v>50.23</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -1285,8 +1965,17 @@
       <c r="C76">
         <v>552.66999999999996</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E76" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -1296,8 +1985,17 @@
       <c r="C77">
         <v>2.52</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E77" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -1308,7 +2006,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -1316,10 +2014,19 @@
         <v>4</v>
       </c>
       <c r="C79">
-        <v>154000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2003673</v>
+      </c>
+      <c r="D79">
+        <v>2025</v>
+      </c>
+      <c r="E79">
+        <v>2025</v>
+      </c>
+      <c r="F79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -1327,10 +2034,19 @@
         <v>5</v>
       </c>
       <c r="C80">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26.8</v>
+      </c>
+      <c r="D80">
+        <v>2024</v>
+      </c>
+      <c r="E80">
+        <v>2025</v>
+      </c>
+      <c r="F80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -1340,8 +2056,17 @@
       <c r="C81">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>2023</v>
+      </c>
+      <c r="E81">
+        <v>2023</v>
+      </c>
+      <c r="F81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -1351,8 +2076,17 @@
       <c r="C82">
         <v>0.71599999999999997</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>2013</v>
+      </c>
+      <c r="E82">
+        <v>2023</v>
+      </c>
+      <c r="F82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -1360,10 +2094,19 @@
         <v>8</v>
       </c>
       <c r="C83">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42.11</v>
+      </c>
+      <c r="D83">
+        <v>2023</v>
+      </c>
+      <c r="E83">
+        <v>2025</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -1373,8 +2116,17 @@
       <c r="C84">
         <v>0.24299999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>2024</v>
+      </c>
+      <c r="E84">
+        <v>2025</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -1382,10 +2134,19 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="D85">
+        <v>2023</v>
+      </c>
+      <c r="E85">
+        <v>2025</v>
+      </c>
+      <c r="F85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -1395,8 +2156,17 @@
       <c r="C86">
         <v>66</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E86" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -1406,8 +2176,17 @@
       <c r="C87">
         <v>834.99</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E87" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -1417,8 +2196,17 @@
       <c r="C88">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E88" s="1">
+        <v>45108</v>
+      </c>
+      <c r="F88" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -1427,6 +2215,639 @@
       </c>
       <c r="C89">
         <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>31840</v>
+      </c>
+      <c r="D90">
+        <v>2025</v>
+      </c>
+      <c r="E90">
+        <v>2025</v>
+      </c>
+      <c r="F90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>27.9</v>
+      </c>
+      <c r="D91">
+        <v>2024</v>
+      </c>
+      <c r="E91">
+        <v>2025</v>
+      </c>
+      <c r="F91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>0.996</v>
+      </c>
+      <c r="D92">
+        <v>2021</v>
+      </c>
+      <c r="E92">
+        <v>2025</v>
+      </c>
+      <c r="F92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D93">
+        <v>2013</v>
+      </c>
+      <c r="E93">
+        <v>2025</v>
+      </c>
+      <c r="F93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>130.13999999999999</v>
+      </c>
+      <c r="D94">
+        <v>2023</v>
+      </c>
+      <c r="E94">
+        <v>2025</v>
+      </c>
+      <c r="F94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>0.18</v>
+      </c>
+      <c r="D95">
+        <v>2014</v>
+      </c>
+      <c r="E95">
+        <v>2025</v>
+      </c>
+      <c r="F95" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>47.9</v>
+      </c>
+      <c r="D96">
+        <v>2023</v>
+      </c>
+      <c r="E96">
+        <v>2025</v>
+      </c>
+      <c r="F96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>199010</v>
+      </c>
+      <c r="D97">
+        <v>2025</v>
+      </c>
+      <c r="E97">
+        <v>2025</v>
+      </c>
+      <c r="F97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>27.5</v>
+      </c>
+      <c r="D98">
+        <v>2024</v>
+      </c>
+      <c r="E98">
+        <v>2025</v>
+      </c>
+      <c r="F98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D99">
+        <v>2019</v>
+      </c>
+      <c r="E99">
+        <v>2025</v>
+      </c>
+      <c r="F99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="D100">
+        <v>2013</v>
+      </c>
+      <c r="E100">
+        <v>2025</v>
+      </c>
+      <c r="F100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>124.47</v>
+      </c>
+      <c r="D101">
+        <v>2023</v>
+      </c>
+      <c r="E101">
+        <v>2025</v>
+      </c>
+      <c r="F101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102">
+        <v>0.18</v>
+      </c>
+      <c r="D102">
+        <v>2025</v>
+      </c>
+      <c r="E102">
+        <v>2025</v>
+      </c>
+      <c r="F102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>80.2</v>
+      </c>
+      <c r="D103">
+        <v>2023</v>
+      </c>
+      <c r="E103">
+        <v>2025</v>
+      </c>
+      <c r="F103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>33440</v>
+      </c>
+      <c r="D104">
+        <v>2025</v>
+      </c>
+      <c r="E104">
+        <v>2025</v>
+      </c>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>35</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>29.3</v>
+      </c>
+      <c r="D105">
+        <v>2024</v>
+      </c>
+      <c r="E105">
+        <v>2025</v>
+      </c>
+      <c r="F105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>35</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>2023</v>
+      </c>
+      <c r="E106">
+        <v>2025</v>
+      </c>
+      <c r="F106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="D107">
+        <v>2013</v>
+      </c>
+      <c r="E107">
+        <v>2025</v>
+      </c>
+      <c r="F107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>15.31</v>
+      </c>
+      <c r="D108">
+        <v>2023</v>
+      </c>
+      <c r="E108">
+        <v>2025</v>
+      </c>
+      <c r="F108" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>2024</v>
+      </c>
+      <c r="E109">
+        <v>2025</v>
+      </c>
+      <c r="F109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>2052.3000000000002</v>
+      </c>
+      <c r="D110">
+        <v>2023</v>
+      </c>
+      <c r="E110">
+        <v>2025</v>
+      </c>
+      <c r="F110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <v>42.02</v>
+      </c>
+      <c r="D111" s="1">
+        <v>45870</v>
+      </c>
+      <c r="E111" s="1">
+        <v>45931</v>
+      </c>
+      <c r="F111" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>445.37</v>
+      </c>
+      <c r="D112" s="1">
+        <v>45870</v>
+      </c>
+      <c r="E112" s="1">
+        <v>45931</v>
+      </c>
+      <c r="F112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113">
+        <v>0.42</v>
+      </c>
+      <c r="D113" s="1">
+        <v>45931</v>
+      </c>
+      <c r="E113" s="1">
+        <v>45931</v>
+      </c>
+      <c r="F113" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114">
+        <v>43.45</v>
+      </c>
+      <c r="D114" s="1">
+        <v>45870</v>
+      </c>
+      <c r="E114" s="1">
+        <v>45931</v>
+      </c>
+      <c r="F114" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>460.35</v>
+      </c>
+      <c r="D115" s="1">
+        <v>45870</v>
+      </c>
+      <c r="E115" s="1">
+        <v>45931</v>
+      </c>
+      <c r="F115" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116">
+        <v>0.73</v>
+      </c>
+      <c r="D116" s="1">
+        <v>45931</v>
+      </c>
+      <c r="E116" s="1">
+        <v>45931</v>
+      </c>
+      <c r="F116" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>35</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117">
+        <v>115.27</v>
+      </c>
+      <c r="D117" s="1">
+        <v>45870</v>
+      </c>
+      <c r="E117" s="1">
+        <v>45931</v>
+      </c>
+      <c r="F117" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>35</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>1529.83</v>
+      </c>
+      <c r="D118" s="1">
+        <v>45870</v>
+      </c>
+      <c r="E118" s="1">
+        <v>45931</v>
+      </c>
+      <c r="F118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>35</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119">
+        <v>2.14</v>
+      </c>
+      <c r="D119" s="1">
+        <v>45778</v>
+      </c>
+      <c r="E119" s="1">
+        <v>45931</v>
+      </c>
+      <c r="F119" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>35</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
